--- a/my_rank/数字货币.xlsx
+++ b/my_rank/数字货币.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1496</v>
+        <v>2759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8353413654618473</v>
+        <v>0.694234592445328</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1562</v>
+        <v>3207</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9016064257028112</v>
+        <v>0.8723658051689861</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1416</v>
+        <v>2834</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7550200803212851</v>
+        <v>0.7240556660039762</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1510</v>
+        <v>2841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8493975903614458</v>
+        <v>0.7268389662027833</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>983</v>
+        <v>1772</v>
       </c>
       <c r="D6" t="n">
-        <v>0.320281124497992</v>
+        <v>0.3017892644135189</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1073</v>
+        <v>1764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4106425702811245</v>
+        <v>0.2986083499005964</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1625</v>
+        <v>3452</v>
       </c>
       <c r="D8" t="n">
-        <v>0.964859437751004</v>
+        <v>0.9697813121272366</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1315</v>
+        <v>2253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6536144578313253</v>
+        <v>0.4930417495029821</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>948</v>
+        <v>1644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.285140562248996</v>
+        <v>0.2508946322067594</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1459</v>
+        <v>2718</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7981927710843374</v>
+        <v>0.6779324055666004</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>664</v>
+        <v>1013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1093</v>
+        <v>1846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4307228915662651</v>
+        <v>0.3312127236580517</v>
       </c>
       <c r="E13" t="n">
         <v>24</v>
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1389</v>
+        <v>2403</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7279116465863453</v>
+        <v>0.5526838966202783</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1462</v>
+        <v>2908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8012048192771084</v>
+        <v>0.7534791252485089</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1584</v>
+        <v>3143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9236947791164659</v>
+        <v>0.8469184890656064</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1581</v>
+        <v>3316</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9206827309236948</v>
+        <v>0.9157057654075547</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1356</v>
+        <v>2857</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6947791164658634</v>
+        <v>0.7332007952286282</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1404</v>
+        <v>2524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7429718875502008</v>
+        <v>0.6007952286282306</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1439</v>
+        <v>2403</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7781124497991968</v>
+        <v>0.5526838966202783</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1379</v>
+        <v>2342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7178714859437751</v>
+        <v>0.5284294234592445</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1000</v>
+        <v>1518</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3373493975903614</v>
+        <v>0.2007952286282306</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>811</v>
+        <v>1206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1475903614457831</v>
+        <v>0.07673956262425448</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1589</v>
+        <v>3470</v>
       </c>
       <c r="D24" t="n">
-        <v>0.928714859437751</v>
+        <v>0.9769383697813121</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1252</v>
+        <v>2465</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5903614457831325</v>
+        <v>0.5773359840954274</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1411</v>
+        <v>2903</v>
       </c>
       <c r="D26" t="n">
-        <v>0.75</v>
+        <v>0.7514910536779325</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1660</v>
+        <v>3494</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9864811133200795</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1550</v>
+        <v>3043</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8895582329317269</v>
+        <v>0.8071570576540755</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1294</v>
+        <v>2478</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6325301204819277</v>
+        <v>0.5825049701789264</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1628</v>
+        <v>3528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9678714859437751</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>939</v>
+        <v>1384</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2761044176706827</v>
+        <v>0.1475149105367793</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1364</v>
+        <v>2559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7028112449799196</v>
+        <v>0.6147117296222664</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
